--- a/backend/media/ai_staging/612b4e77-0d70-4399-a1ab-e464fcee4083/recursive-power-function-fast-exponentia-d13ef558/reports/Summary_unknown_assignment.xlsx
+++ b/backend/media/ai_staging/612b4e77-0d70-4399-a1ab-e464fcee4083/recursive-power-function-fast-exponentia-d13ef558/reports/Summary_unknown_assignment.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>The provided recursive solution demonstrates clear and concise code structure, making it easy to follow. Its time complexity is likely O(log n) due to the exponentiation by squaring approach, which is a standard result for this problem. Given the low confidence level, it's reasonable to consider the complexity as typical for binary exponentiation under these constraints.</t>
+          <t>The provided recursive solution efficiently calculates power with a time complexity of O(log N) due to its divide-and-conquer approach, despite an initial misinterpretation. Code structure and readability are clear, making the algorithm easy to follow. The use of recursion avoids explicit loop constructs, improving code clarity.</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
